--- a/Wine_Quality/outputs/train_40_test_60/depth_6/wq_train_40_test_60_depth_6_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_6/wq_train_40_test_60_depth_6_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2456140350877193</v>
+        <v>0.5623409669211196</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0945945945945946</v>
+        <v>0.2885117493472585</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1365853658536585</v>
+        <v>0.3813632441760138</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8115091015854374</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.925963149078727</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8649663589422626</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="E3" t="n">
-        <v>2985</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5779816513761468</v>
+        <v>0.8028735632183908</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3289817232375979</v>
+        <v>0.9360134003350083</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4193011647254576</v>
+        <v>0.8643464810518174</v>
       </c>
       <c r="E4" t="n">
-        <v>766</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7771223390612978</v>
+        <v>0.774557578866376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7771223390612978</v>
+        <v>0.774557578866376</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7771223390612978</v>
+        <v>0.774557578866376</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7771223390612978</v>
+        <v>0.774557578866376</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5450349293497677</v>
+        <v>0.5191740741490675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4498464889703064</v>
+        <v>0.4194363111553502</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4736176298404596</v>
+        <v>0.4343936631985492</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7441496512899826</v>
+        <v>0.7324422429674308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7771223390612978</v>
+        <v>0.774557578866376</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7497624795508324</v>
+        <v>0.7388315563234006</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>

--- a/Wine_Quality/outputs/train_40_test_60/depth_6/wq_train_40_test_60_depth_6_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_6/wq_train_40_test_60_depth_6_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5623409669211196</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2885117493472585</v>
+        <v>0.29</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3813632441760138</v>
+        <v>0.38</v>
       </c>
       <c r="E2" t="n">
         <v>766</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.19</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03378378378378379</v>
+        <v>0.03</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05747126436781609</v>
+        <v>0.06</v>
       </c>
       <c r="E3" t="n">
         <v>148</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8028735632183908</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9360134003350083</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8643464810518174</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
         <v>2985</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.774557578866376</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.774557578866376</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.774557578866376</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="n">
-        <v>0.774557578866376</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5191740741490675</v>
+        <v>0.52</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4194363111553502</v>
+        <v>0.42</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4343936631985492</v>
+        <v>0.43</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7324422429674308</v>
+        <v>0.73</v>
       </c>
       <c r="C7" t="n">
-        <v>0.774557578866376</v>
+        <v>0.77</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7388315563234006</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>
